--- a/biology/Zoologie/Bhutanitis_thaidina/Bhutanitis_thaidina.xlsx
+++ b/biology/Zoologie/Bhutanitis_thaidina/Bhutanitis_thaidina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis thaidina est un lépidoptère appartenant à la famille des Papilionidae, à la sous-famille des Parnassiinae et au genre Bhutanitis.
 </t>
@@ -511,13 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bhutanitis thaidina a été nommé par Émile Blanchard en 1871[1].
-Synonymes : Armandia thaidina[1].
-Sous-espèces
-Bhutanitis thaidina thaidina
-Bhutanitis thaidina dongchuanensis Lee [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis thaidina a été nommé par Émile Blanchard en 1871.
+Synonymes : Armandia thaidina.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bhutanitis thaidina se nomme Chinese Three-tailed Swallowtail en anglais.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bhutanitis thaidina thaidina
+Bhutanitis thaidina dongchuanensis Lee .</t>
         </is>
       </c>
     </row>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhutanitis thaidina est un papillon spectaculaire, de couleur marron à noir, marqué de rayures blanches, aux ailes antérieures arrondies et aux ailes postérieures à plusieurs queues, avec de gros ocelles postdiscaux doublés d'une large tache rouge à rose.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis thaidina se nomme Chinese Three-tailed Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -604,14 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Plantes hôtes
-Sa plante hôte est une aristoloche Aristolochia moupinensis[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis thaidina est un papillon spectaculaire, de couleur marron à noir, marqué de rayures blanches, aux ailes antérieures arrondies et aux ailes postérieures à plusieurs queues, avec de gros ocelles postdiscaux doublés d'une large tache rouge à rose.
 </t>
         </is>
       </c>
@@ -637,12 +657,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce rare qui se rencontre au Tibet et en Chine[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est une aristoloche Aristolochia moupinensis.
 </t>
         </is>
       </c>
@@ -668,10 +694,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce rare qui se rencontre au Tibet et en Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bhutanitis_thaidina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bhutanitis_thaidina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis lidderdalii est sur la liste des insectes protégés par la convention de Washington.
 Comme tous les Bhutanitis est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
